--- a/Planilha-Classificação-Solo2021.xlsx
+++ b/Planilha-Classificação-Solo2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Informações" sheetId="1" state="visible" r:id="rId2"/>
@@ -790,7 +790,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -806,7 +806,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -893,7 +893,7 @@
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -985,11 +985,11 @@
   </sheetPr>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="14.16"/>
@@ -1839,11 +1839,11 @@
   </sheetPr>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z12" activeCellId="0" sqref="Z12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="3" width="18.06"/>
@@ -3587,11 +3587,11 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="13.89"/>
@@ -4276,14 +4276,14 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="16.39"/>
   </cols>
   <sheetData>
@@ -4432,8 +4432,8 @@
         <v>0</v>
       </c>
       <c r="H7" s="39" t="str">
-        <f aca="false">IF(H4&gt;=0.1*H2,"Horizonte pode ser 'A húmico'","Horizonte não é 'A húmico'")</f>
-        <v>Horizonte pode ser 'A húmico'</v>
+        <f aca="false">IF(H4&gt;=(60+0.1*H2),"Horizonte pode ser 'A húmico'","Horizonte não é 'A húmico'")</f>
+        <v>Horizonte não é 'A húmico'</v>
       </c>
       <c r="I7" s="40"/>
     </row>
@@ -4654,11 +4654,11 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="15.42"/>
@@ -4738,12 +4738,12 @@
         <v>Não provável</v>
       </c>
       <c r="F3" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A3),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S3&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
-        <v>A húmico provável</v>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A3),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S3&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
+        <v>Não provável</v>
       </c>
       <c r="G3" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A3), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S3&lt;65,'2. Atributos Diagnósticos - Quí'!L3 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L3 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
-        <v>Não provável</v>
+        <f aca="false">IF(ISBLANK(A3), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S3&lt;65,'2. Atributos Diagnósticos - Quí'!L3 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L3 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <v>A moderado possível, checar critérios de espessura e estrutura</v>
       </c>
       <c r="H3" s="43" t="str">
         <f aca="false">IF(ISBLANK(A3), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!K3&gt;=30, '4. Horizonte A húmico'!B3 &gt;= 20), "A antrópico possível, checar artefatos líticos e outros", "Não provável"))</f>
@@ -4776,12 +4776,12 @@
         <v>Não provável</v>
       </c>
       <c r="F4" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A4),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S4&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
-        <v>A húmico provável</v>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A4),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S4&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
+        <v>Não provável</v>
       </c>
       <c r="G4" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A4), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S4&lt;65,'2. Atributos Diagnósticos - Quí'!L4 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L4 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
-        <v>Não provável</v>
+        <f aca="false">IF(ISBLANK(A4), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S4&lt;65,'2. Atributos Diagnósticos - Quí'!L4 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L4 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <v>A moderado possível, checar critérios de espessura e estrutura</v>
       </c>
       <c r="H4" s="43" t="str">
         <f aca="false">IF(ISBLANK(A4), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!K4&gt;=30, '4. Horizonte A húmico'!B4 &gt;= 20), "A antrópico possível, checar artefatos líticos e outros", "Não provável"))</f>
@@ -4810,11 +4810,11 @@
         <v>Vazio</v>
       </c>
       <c r="F5" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A5),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S5&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A5),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S5&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G5" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A5), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S5&lt;65,'2. Atributos Diagnósticos - Quí'!L5 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L5 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A5), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S5&lt;65,'2. Atributos Diagnósticos - Quí'!L5 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L5 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H5" s="43" t="str">
@@ -4844,11 +4844,11 @@
         <v>Vazio</v>
       </c>
       <c r="F6" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A6),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S6&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A6),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S6&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G6" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A6), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S6&lt;65,'2. Atributos Diagnósticos - Quí'!L6 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L6 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A6), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S6&lt;65,'2. Atributos Diagnósticos - Quí'!L6 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L6 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H6" s="43" t="str">
@@ -4878,11 +4878,11 @@
         <v>Vazio</v>
       </c>
       <c r="F7" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A7),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S7&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A7),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S7&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G7" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A7), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S7&lt;65,'2. Atributos Diagnósticos - Quí'!L7 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L7 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A7), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S7&lt;65,'2. Atributos Diagnósticos - Quí'!L7 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L7 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H7" s="43" t="str">
@@ -4912,11 +4912,11 @@
         <v>Vazio</v>
       </c>
       <c r="F8" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A8),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S8&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A8),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S8&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G8" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A8), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S8&lt;65,'2. Atributos Diagnósticos - Quí'!L8 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L8 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A8), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S8&lt;65,'2. Atributos Diagnósticos - Quí'!L8 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L8 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H8" s="43" t="str">
@@ -4946,11 +4946,11 @@
         <v>Vazio</v>
       </c>
       <c r="F9" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A9),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S9&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A9),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S9&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G9" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A9), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S9&lt;65,'2. Atributos Diagnósticos - Quí'!L9 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L9 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A9), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S9&lt;65,'2. Atributos Diagnósticos - Quí'!L9 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L9 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H9" s="43" t="str">
@@ -4980,11 +4980,11 @@
         <v>Vazio</v>
       </c>
       <c r="F10" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A10),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S10&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A10),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S10&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G10" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A10), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S10&lt;65,'2. Atributos Diagnósticos - Quí'!L10 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L10 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A10), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S10&lt;65,'2. Atributos Diagnósticos - Quí'!L10 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L10 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H10" s="43" t="str">
@@ -5014,11 +5014,11 @@
         <v>Vazio</v>
       </c>
       <c r="F11" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A11),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S11&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A11),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S11&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G11" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A11), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S11&lt;65,'2. Atributos Diagnósticos - Quí'!L11 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L11 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A11), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S11&lt;65,'2. Atributos Diagnósticos - Quí'!L11 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L11 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H11" s="43" t="str">
@@ -5048,11 +5048,11 @@
         <v>Vazio</v>
       </c>
       <c r="F12" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A12),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S12&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A12),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S12&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G12" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A12), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S12&lt;65,'2. Atributos Diagnósticos - Quí'!L12 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L12 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A12), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S12&lt;65,'2. Atributos Diagnósticos - Quí'!L12 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L12 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H12" s="43" t="str">
@@ -5082,11 +5082,11 @@
         <v>Vazio</v>
       </c>
       <c r="F13" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A13),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S13&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A13),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S13&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G13" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A13), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S13&lt;65,'2. Atributos Diagnósticos - Quí'!L13 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L13 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A13), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S13&lt;65,'2. Atributos Diagnósticos - Quí'!L13 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L13 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H13" s="43" t="str">
@@ -5116,11 +5116,11 @@
         <v>Vazio</v>
       </c>
       <c r="F14" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A14),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S14&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A14),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S14&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G14" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A14), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S14&lt;65,'2. Atributos Diagnósticos - Quí'!L14 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L14 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A14), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S14&lt;65,'2. Atributos Diagnósticos - Quí'!L14 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L14 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H14" s="43" t="str">
@@ -5150,11 +5150,11 @@
         <v>Vazio</v>
       </c>
       <c r="F15" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A15),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S15&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A15),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S15&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G15" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A15), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S15&lt;65,'2. Atributos Diagnósticos - Quí'!L15 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L15 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A15), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S15&lt;65,'2. Atributos Diagnósticos - Quí'!L15 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L15 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H15" s="43" t="str">
@@ -5184,11 +5184,11 @@
         <v>Vazio</v>
       </c>
       <c r="F16" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A16),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S16&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A16),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S16&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G16" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A16), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S16&lt;65,'2. Atributos Diagnósticos - Quí'!L16 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L16 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A16), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S16&lt;65,'2. Atributos Diagnósticos - Quí'!L16 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L16 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H16" s="43" t="str">
@@ -5218,11 +5218,11 @@
         <v>Vazio</v>
       </c>
       <c r="F17" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A17),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S17&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A17),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S17&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G17" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A17), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S17&lt;65,'2. Atributos Diagnósticos - Quí'!L17 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L17 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A17), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S17&lt;65,'2. Atributos Diagnósticos - Quí'!L17 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L17 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H17" s="43" t="str">
@@ -5252,11 +5252,11 @@
         <v>Vazio</v>
       </c>
       <c r="F18" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A18),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S18&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A18),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S18&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G18" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A18), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S18&lt;65,'2. Atributos Diagnósticos - Quí'!L18 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L18 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A18), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S18&lt;65,'2. Atributos Diagnósticos - Quí'!L18 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L18 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H18" s="43" t="str">
@@ -5286,11 +5286,11 @@
         <v>Vazio</v>
       </c>
       <c r="F19" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A19),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S19&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A19),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S19&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G19" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A19), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S19&lt;65,'2. Atributos Diagnósticos - Quí'!L19 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L19 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A19), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S19&lt;65,'2. Atributos Diagnósticos - Quí'!L19 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L19 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H19" s="43" t="str">
@@ -5320,11 +5320,11 @@
         <v>Vazio</v>
       </c>
       <c r="F20" s="43" t="str">
-        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A20),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S20&lt;65,'4. Horizonte A húmico'!$H$4&gt;=0.1*'4. Horizonte A húmico'!$H$2), "A húmico provável", "Não provável")))</f>
+        <f aca="false">IF(ISBLANK('4. Horizonte A húmico'!$H$4), "Preencher tabela específica", IF(ISBLANK(A20),"Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S20&lt;65,'4. Horizonte A húmico'!$H$4&gt;=(60+0.1*'4. Horizonte A húmico'!$H$2)), "A húmico provável", "Não provável")))</f>
         <v>Vazio</v>
       </c>
       <c r="G20" s="43" t="str">
-        <f aca="false">IF(ISBLANK(A20), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S20&lt;65,'2. Atributos Diagnósticos - Quí'!L20 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L20 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; 0.1*'4. Horizonte A húmico'!$H$2), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
+        <f aca="false">IF(ISBLANK(A20), "Vazio", IF(AND('2. Atributos Diagnósticos - Quí'!S20&lt;65,'2. Atributos Diagnósticos - Quí'!L20 &gt;= 6, '2. Atributos Diagnósticos - Quí'!L20 &lt;80, '4. Horizonte A húmico'!$H$4 &lt; (60+0.1*'4. Horizonte A húmico'!$H$2)), "A moderado possível, checar critérios de espessura e estrutura", "Não provável"))</f>
         <v>Vazio</v>
       </c>
       <c r="H20" s="43" t="str">
